--- a/Gestão do Projeto/Reuniões/Datas_Atas_Ponto_Controle_IPS.xlsx
+++ b/Gestão do Projeto/Reuniões/Datas_Atas_Ponto_Controle_IPS.xlsx
@@ -1,22 +1,100 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documentos\ips-brasil-documentos\Gestão do Projeto\Reuniões\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7F8F8E-2DED-B94A-A60A-510DFBCD9C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="19360" windowHeight="8500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="756" windowWidth="19356" windowHeight="8496"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha4" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$3:$C$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$3:$C$32</definedName>
+    <definedName name="_xlchart.0" hidden="1">Planilha1!$A$10:$C$10</definedName>
+    <definedName name="_xlchart.1" hidden="1">Planilha1!$A$11:$C$11</definedName>
+    <definedName name="_xlchart.10" hidden="1">Planilha1!$A$1:$C$1</definedName>
+    <definedName name="_xlchart.11" hidden="1">Planilha1!$A$20:$C$20</definedName>
+    <definedName name="_xlchart.12" hidden="1">Planilha1!$A$21:$C$21</definedName>
+    <definedName name="_xlchart.13" hidden="1">Planilha1!$A$22:$C$22</definedName>
+    <definedName name="_xlchart.14" hidden="1">Planilha1!$A$23:$C$23</definedName>
+    <definedName name="_xlchart.15" hidden="1">Planilha1!$A$24:$C$24</definedName>
+    <definedName name="_xlchart.16" hidden="1">Planilha1!$A$25:$C$25</definedName>
+    <definedName name="_xlchart.17" hidden="1">Planilha1!$A$26:$C$26</definedName>
+    <definedName name="_xlchart.18" hidden="1">Planilha1!$A$27:$C$27</definedName>
+    <definedName name="_xlchart.19" hidden="1">Planilha1!$A$28:$C$28</definedName>
+    <definedName name="_xlchart.2" hidden="1">Planilha1!$A$12:$C$12</definedName>
+    <definedName name="_xlchart.20" hidden="1">Planilha1!$A$29:$C$29</definedName>
+    <definedName name="_xlchart.21" hidden="1">Planilha1!$A$2:$C$2</definedName>
+    <definedName name="_xlchart.22" hidden="1">Planilha1!$A$30:$C$30</definedName>
+    <definedName name="_xlchart.23" hidden="1">Planilha1!$A$31:$C$31</definedName>
+    <definedName name="_xlchart.24" hidden="1">Planilha1!$A$32:$C$32</definedName>
+    <definedName name="_xlchart.25" hidden="1">Planilha1!$A$33:$C$33</definedName>
+    <definedName name="_xlchart.26" hidden="1">Planilha1!$A$34:$C$34</definedName>
+    <definedName name="_xlchart.27" hidden="1">Planilha1!$A$35:$C$35</definedName>
+    <definedName name="_xlchart.28" hidden="1">Planilha1!$A$36:$C$36</definedName>
+    <definedName name="_xlchart.29" hidden="1">Planilha1!$A$37:$C$37</definedName>
+    <definedName name="_xlchart.3" hidden="1">Planilha1!$A$13:$C$13</definedName>
+    <definedName name="_xlchart.30" hidden="1">Planilha1!$A$38:$C$38</definedName>
+    <definedName name="_xlchart.31" hidden="1">Planilha1!$A$39:$C$39</definedName>
+    <definedName name="_xlchart.32" hidden="1">Planilha1!$A$3:$C$3</definedName>
+    <definedName name="_xlchart.33" hidden="1">Planilha1!$A$4:$C$4</definedName>
+    <definedName name="_xlchart.34" hidden="1">Planilha1!$A$5:$C$5</definedName>
+    <definedName name="_xlchart.35" hidden="1">Planilha1!$A$6:$C$6</definedName>
+    <definedName name="_xlchart.36" hidden="1">Planilha1!$A$7:$C$7</definedName>
+    <definedName name="_xlchart.37" hidden="1">Planilha1!$A$8:$C$8</definedName>
+    <definedName name="_xlchart.38" hidden="1">Planilha1!$A$9:$C$9</definedName>
+    <definedName name="_xlchart.39" hidden="1">Planilha1!$D$10:$F$10</definedName>
+    <definedName name="_xlchart.4" hidden="1">Planilha1!$A$14:$C$14</definedName>
+    <definedName name="_xlchart.40" hidden="1">Planilha1!$D$11:$F$11</definedName>
+    <definedName name="_xlchart.41" hidden="1">Planilha1!$D$12:$F$12</definedName>
+    <definedName name="_xlchart.42" hidden="1">Planilha1!$D$13:$F$13</definedName>
+    <definedName name="_xlchart.43" hidden="1">Planilha1!$D$14:$F$14</definedName>
+    <definedName name="_xlchart.44" hidden="1">Planilha1!$D$15:$F$15</definedName>
+    <definedName name="_xlchart.45" hidden="1">Planilha1!$D$16:$F$16</definedName>
+    <definedName name="_xlchart.46" hidden="1">Planilha1!$D$17:$F$17</definedName>
+    <definedName name="_xlchart.47" hidden="1">Planilha1!$D$18:$F$18</definedName>
+    <definedName name="_xlchart.48" hidden="1">Planilha1!$D$19:$F$19</definedName>
+    <definedName name="_xlchart.49" hidden="1">Planilha1!$D$1:$F$1</definedName>
+    <definedName name="_xlchart.5" hidden="1">Planilha1!$A$15:$C$15</definedName>
+    <definedName name="_xlchart.50" hidden="1">Planilha1!$D$20:$F$20</definedName>
+    <definedName name="_xlchart.51" hidden="1">Planilha1!$D$21:$F$21</definedName>
+    <definedName name="_xlchart.52" hidden="1">Planilha1!$D$22:$F$22</definedName>
+    <definedName name="_xlchart.53" hidden="1">Planilha1!$D$23:$F$23</definedName>
+    <definedName name="_xlchart.54" hidden="1">Planilha1!$D$24:$F$24</definedName>
+    <definedName name="_xlchart.55" hidden="1">Planilha1!$D$25:$F$25</definedName>
+    <definedName name="_xlchart.56" hidden="1">Planilha1!$D$26:$F$26</definedName>
+    <definedName name="_xlchart.57" hidden="1">Planilha1!$D$27:$F$27</definedName>
+    <definedName name="_xlchart.58" hidden="1">Planilha1!$D$28:$F$28</definedName>
+    <definedName name="_xlchart.59" hidden="1">Planilha1!$D$29:$F$29</definedName>
+    <definedName name="_xlchart.6" hidden="1">Planilha1!$A$16:$C$16</definedName>
+    <definedName name="_xlchart.60" hidden="1">Planilha1!$D$2:$F$2</definedName>
+    <definedName name="_xlchart.61" hidden="1">Planilha1!$D$30:$F$30</definedName>
+    <definedName name="_xlchart.62" hidden="1">Planilha1!$D$31:$F$31</definedName>
+    <definedName name="_xlchart.63" hidden="1">Planilha1!$D$32:$F$32</definedName>
+    <definedName name="_xlchart.64" hidden="1">Planilha1!$D$33:$F$33</definedName>
+    <definedName name="_xlchart.65" hidden="1">Planilha1!$D$34:$F$34</definedName>
+    <definedName name="_xlchart.66" hidden="1">Planilha1!$D$35:$F$35</definedName>
+    <definedName name="_xlchart.67" hidden="1">Planilha1!$D$36:$F$36</definedName>
+    <definedName name="_xlchart.68" hidden="1">Planilha1!$D$37:$F$37</definedName>
+    <definedName name="_xlchart.69" hidden="1">Planilha1!$D$38:$F$38</definedName>
+    <definedName name="_xlchart.7" hidden="1">Planilha1!$A$17:$C$17</definedName>
+    <definedName name="_xlchart.70" hidden="1">Planilha1!$D$39:$F$39</definedName>
+    <definedName name="_xlchart.71" hidden="1">Planilha1!$D$3:$F$3</definedName>
+    <definedName name="_xlchart.72" hidden="1">Planilha1!$D$4:$F$4</definedName>
+    <definedName name="_xlchart.73" hidden="1">Planilha1!$D$5:$F$5</definedName>
+    <definedName name="_xlchart.74" hidden="1">Planilha1!$D$6:$F$6</definedName>
+    <definedName name="_xlchart.75" hidden="1">Planilha1!$D$7:$F$7</definedName>
+    <definedName name="_xlchart.76" hidden="1">Planilha1!$D$8:$F$8</definedName>
+    <definedName name="_xlchart.77" hidden="1">Planilha1!$D$9:$F$9</definedName>
+    <definedName name="_xlchart.8" hidden="1">Planilha1!$A$18:$C$18</definedName>
+    <definedName name="_xlchart.9" hidden="1">Planilha1!$A$19:$C$19</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="88">
   <si>
     <t>Atas de reuniões</t>
   </si>
@@ -211,16 +289,97 @@
   </si>
   <si>
     <t>Datas de Atas de Reunião de Ponto de Controle do Projeto BRASIL-IPS com a CGSII  da SEIDIGI</t>
+  </si>
+  <si>
+    <t>31.01.2023</t>
+  </si>
+  <si>
+    <t>Projeto IPS - OBM_31.01.2023</t>
+  </si>
+  <si>
+    <t>31_Ata_IPS_22.09.2023_ESS</t>
+  </si>
+  <si>
+    <t>22.09.2023</t>
+  </si>
+  <si>
+    <t>32_Ata_IPS_29.09.2023_ESS</t>
+  </si>
+  <si>
+    <t>29.09.2023</t>
+  </si>
+  <si>
+    <t>33_Ata_IPS_06.10.2023_ESS</t>
+  </si>
+  <si>
+    <t>06.10.2023</t>
+  </si>
+  <si>
+    <t>34_Ata_IPS_10.11.2023_ESS</t>
+  </si>
+  <si>
+    <t>10.11.2023</t>
+  </si>
+  <si>
+    <t>35_Ata_IPS_21.11.2023_ESS</t>
+  </si>
+  <si>
+    <t>21.11.2023</t>
+  </si>
+  <si>
+    <t>36_Ata_IPS_01.12.2023_ESS</t>
+  </si>
+  <si>
+    <t>01.12.2023</t>
+  </si>
+  <si>
+    <t>Alinhamentos OBM_21.11.2023</t>
+  </si>
+  <si>
+    <t>Janeiro</t>
+  </si>
+  <si>
+    <t>Fevereiro</t>
+  </si>
+  <si>
+    <t>Março</t>
+  </si>
+  <si>
+    <t>Abril</t>
+  </si>
+  <si>
+    <t>Maio</t>
+  </si>
+  <si>
+    <t>Junho</t>
+  </si>
+  <si>
+    <t>Julho</t>
+  </si>
+  <si>
+    <t>Agosto</t>
+  </si>
+  <si>
+    <t>Setembro</t>
+  </si>
+  <si>
+    <t>Outubro</t>
+  </si>
+  <si>
+    <t>Novembro</t>
+  </si>
+  <si>
+    <t>Dezembro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,7 +415,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -279,17 +438,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -569,29 +789,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="30.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="20.399999999999999">
       <c r="A1" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="20.399999999999999">
       <c r="A2" s="5"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -602,7 +822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -613,7 +833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -624,7 +844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -635,279 +855,367 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="C8" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="C9" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="C10" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="C12" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="C13" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="C14" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="C15" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="C16" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="C17" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="C18" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="C19" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="C20" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="C21" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="C22" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="C23" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+      <c r="C24" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B25" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+      <c r="C25" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+      <c r="C26" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B27" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+      <c r="C27" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+      <c r="C28" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+      <c r="C29" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+      <c r="C30" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B31" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+      <c r="C31" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C32" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -915,4 +1223,355 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:C39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="28.77734375" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="6">
+        <v>4</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="8"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="6">
+        <v>4</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="7"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="6">
+        <v>4</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="8"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="6">
+        <v>4</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="8"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="6">
+        <v>3</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="8"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="6">
+        <v>3</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="7"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="8"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="9">
+        <v>1</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="6">
+        <v>4</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="7"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="7"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="8"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="6">
+        <v>4</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="7"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="7"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="8"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="9">
+        <v>1</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="6">
+        <v>3</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="9">
+        <v>1</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/Gestão do Projeto/Reuniões/Datas_Atas_Ponto_Controle_IPS.xlsx
+++ b/Gestão do Projeto/Reuniões/Datas_Atas_Ponto_Controle_IPS.xlsx
@@ -13,88 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha4" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$3:$C$32</definedName>
-    <definedName name="_xlchart.0" hidden="1">Planilha1!$A$10:$C$10</definedName>
-    <definedName name="_xlchart.1" hidden="1">Planilha1!$A$11:$C$11</definedName>
-    <definedName name="_xlchart.10" hidden="1">Planilha1!$A$1:$C$1</definedName>
-    <definedName name="_xlchart.11" hidden="1">Planilha1!$A$20:$C$20</definedName>
-    <definedName name="_xlchart.12" hidden="1">Planilha1!$A$21:$C$21</definedName>
-    <definedName name="_xlchart.13" hidden="1">Planilha1!$A$22:$C$22</definedName>
-    <definedName name="_xlchart.14" hidden="1">Planilha1!$A$23:$C$23</definedName>
-    <definedName name="_xlchart.15" hidden="1">Planilha1!$A$24:$C$24</definedName>
-    <definedName name="_xlchart.16" hidden="1">Planilha1!$A$25:$C$25</definedName>
-    <definedName name="_xlchart.17" hidden="1">Planilha1!$A$26:$C$26</definedName>
-    <definedName name="_xlchart.18" hidden="1">Planilha1!$A$27:$C$27</definedName>
-    <definedName name="_xlchart.19" hidden="1">Planilha1!$A$28:$C$28</definedName>
-    <definedName name="_xlchart.2" hidden="1">Planilha1!$A$12:$C$12</definedName>
-    <definedName name="_xlchart.20" hidden="1">Planilha1!$A$29:$C$29</definedName>
-    <definedName name="_xlchart.21" hidden="1">Planilha1!$A$2:$C$2</definedName>
-    <definedName name="_xlchart.22" hidden="1">Planilha1!$A$30:$C$30</definedName>
-    <definedName name="_xlchart.23" hidden="1">Planilha1!$A$31:$C$31</definedName>
-    <definedName name="_xlchart.24" hidden="1">Planilha1!$A$32:$C$32</definedName>
-    <definedName name="_xlchart.25" hidden="1">Planilha1!$A$33:$C$33</definedName>
-    <definedName name="_xlchart.26" hidden="1">Planilha1!$A$34:$C$34</definedName>
-    <definedName name="_xlchart.27" hidden="1">Planilha1!$A$35:$C$35</definedName>
-    <definedName name="_xlchart.28" hidden="1">Planilha1!$A$36:$C$36</definedName>
-    <definedName name="_xlchart.29" hidden="1">Planilha1!$A$37:$C$37</definedName>
-    <definedName name="_xlchart.3" hidden="1">Planilha1!$A$13:$C$13</definedName>
-    <definedName name="_xlchart.30" hidden="1">Planilha1!$A$38:$C$38</definedName>
-    <definedName name="_xlchart.31" hidden="1">Planilha1!$A$39:$C$39</definedName>
-    <definedName name="_xlchart.32" hidden="1">Planilha1!$A$3:$C$3</definedName>
-    <definedName name="_xlchart.33" hidden="1">Planilha1!$A$4:$C$4</definedName>
-    <definedName name="_xlchart.34" hidden="1">Planilha1!$A$5:$C$5</definedName>
-    <definedName name="_xlchart.35" hidden="1">Planilha1!$A$6:$C$6</definedName>
-    <definedName name="_xlchart.36" hidden="1">Planilha1!$A$7:$C$7</definedName>
-    <definedName name="_xlchart.37" hidden="1">Planilha1!$A$8:$C$8</definedName>
-    <definedName name="_xlchart.38" hidden="1">Planilha1!$A$9:$C$9</definedName>
-    <definedName name="_xlchart.39" hidden="1">Planilha1!$D$10:$F$10</definedName>
-    <definedName name="_xlchart.4" hidden="1">Planilha1!$A$14:$C$14</definedName>
-    <definedName name="_xlchart.40" hidden="1">Planilha1!$D$11:$F$11</definedName>
-    <definedName name="_xlchart.41" hidden="1">Planilha1!$D$12:$F$12</definedName>
-    <definedName name="_xlchart.42" hidden="1">Planilha1!$D$13:$F$13</definedName>
-    <definedName name="_xlchart.43" hidden="1">Planilha1!$D$14:$F$14</definedName>
-    <definedName name="_xlchart.44" hidden="1">Planilha1!$D$15:$F$15</definedName>
-    <definedName name="_xlchart.45" hidden="1">Planilha1!$D$16:$F$16</definedName>
-    <definedName name="_xlchart.46" hidden="1">Planilha1!$D$17:$F$17</definedName>
-    <definedName name="_xlchart.47" hidden="1">Planilha1!$D$18:$F$18</definedName>
-    <definedName name="_xlchart.48" hidden="1">Planilha1!$D$19:$F$19</definedName>
-    <definedName name="_xlchart.49" hidden="1">Planilha1!$D$1:$F$1</definedName>
-    <definedName name="_xlchart.5" hidden="1">Planilha1!$A$15:$C$15</definedName>
-    <definedName name="_xlchart.50" hidden="1">Planilha1!$D$20:$F$20</definedName>
-    <definedName name="_xlchart.51" hidden="1">Planilha1!$D$21:$F$21</definedName>
-    <definedName name="_xlchart.52" hidden="1">Planilha1!$D$22:$F$22</definedName>
-    <definedName name="_xlchart.53" hidden="1">Planilha1!$D$23:$F$23</definedName>
-    <definedName name="_xlchart.54" hidden="1">Planilha1!$D$24:$F$24</definedName>
-    <definedName name="_xlchart.55" hidden="1">Planilha1!$D$25:$F$25</definedName>
-    <definedName name="_xlchart.56" hidden="1">Planilha1!$D$26:$F$26</definedName>
-    <definedName name="_xlchart.57" hidden="1">Planilha1!$D$27:$F$27</definedName>
-    <definedName name="_xlchart.58" hidden="1">Planilha1!$D$28:$F$28</definedName>
-    <definedName name="_xlchart.59" hidden="1">Planilha1!$D$29:$F$29</definedName>
-    <definedName name="_xlchart.6" hidden="1">Planilha1!$A$16:$C$16</definedName>
-    <definedName name="_xlchart.60" hidden="1">Planilha1!$D$2:$F$2</definedName>
-    <definedName name="_xlchart.61" hidden="1">Planilha1!$D$30:$F$30</definedName>
-    <definedName name="_xlchart.62" hidden="1">Planilha1!$D$31:$F$31</definedName>
-    <definedName name="_xlchart.63" hidden="1">Planilha1!$D$32:$F$32</definedName>
-    <definedName name="_xlchart.64" hidden="1">Planilha1!$D$33:$F$33</definedName>
-    <definedName name="_xlchart.65" hidden="1">Planilha1!$D$34:$F$34</definedName>
-    <definedName name="_xlchart.66" hidden="1">Planilha1!$D$35:$F$35</definedName>
-    <definedName name="_xlchart.67" hidden="1">Planilha1!$D$36:$F$36</definedName>
-    <definedName name="_xlchart.68" hidden="1">Planilha1!$D$37:$F$37</definedName>
-    <definedName name="_xlchart.69" hidden="1">Planilha1!$D$38:$F$38</definedName>
-    <definedName name="_xlchart.7" hidden="1">Planilha1!$A$17:$C$17</definedName>
-    <definedName name="_xlchart.70" hidden="1">Planilha1!$D$39:$F$39</definedName>
-    <definedName name="_xlchart.71" hidden="1">Planilha1!$D$3:$F$3</definedName>
-    <definedName name="_xlchart.72" hidden="1">Planilha1!$D$4:$F$4</definedName>
-    <definedName name="_xlchart.73" hidden="1">Planilha1!$D$5:$F$5</definedName>
-    <definedName name="_xlchart.74" hidden="1">Planilha1!$D$6:$F$6</definedName>
-    <definedName name="_xlchart.75" hidden="1">Planilha1!$D$7:$F$7</definedName>
-    <definedName name="_xlchart.76" hidden="1">Planilha1!$D$8:$F$8</definedName>
-    <definedName name="_xlchart.77" hidden="1">Planilha1!$D$9:$F$9</definedName>
-    <definedName name="_xlchart.8" hidden="1">Planilha1!$A$18:$C$18</definedName>
-    <definedName name="_xlchart.9" hidden="1">Planilha1!$A$19:$C$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$3:$C$39</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -106,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="96">
   <si>
     <t>Atas de reuniões</t>
   </si>
@@ -336,40 +257,64 @@
     <t>Alinhamentos OBM_21.11.2023</t>
   </si>
   <si>
-    <t>Janeiro</t>
-  </si>
-  <si>
-    <t>Fevereiro</t>
-  </si>
-  <si>
-    <t>Março</t>
-  </si>
-  <si>
-    <t>Abril</t>
-  </si>
-  <si>
-    <t>Maio</t>
-  </si>
-  <si>
-    <t>Junho</t>
-  </si>
-  <si>
-    <t>Julho</t>
-  </si>
-  <si>
-    <t>Agosto</t>
-  </si>
-  <si>
-    <t>Setembro</t>
-  </si>
-  <si>
-    <t>Outubro</t>
-  </si>
-  <si>
-    <t>Novembro</t>
-  </si>
-  <si>
-    <t>Dezembro</t>
+    <t>06.06.2023</t>
+  </si>
+  <si>
+    <t>Alinhamentos OBM_06.06.2023</t>
+  </si>
+  <si>
+    <t>Alinhamentos OBM_21.06.2023</t>
+  </si>
+  <si>
+    <t>21.06.2023</t>
+  </si>
+  <si>
+    <t>Alinhamentos OBM_23.06.2023</t>
+  </si>
+  <si>
+    <t>Alinhamentos OBM_06.07.2023</t>
+  </si>
+  <si>
+    <t>06.07.2023</t>
+  </si>
+  <si>
+    <t>Alinhamentos OBM_23.08.2023</t>
+  </si>
+  <si>
+    <t>23.08.2023</t>
+  </si>
+  <si>
+    <t>Alinhamentos OBM_24.08.2023</t>
+  </si>
+  <si>
+    <t>24.08.2023</t>
+  </si>
+  <si>
+    <t>Alinhamentos OBM_29.08.2023</t>
+  </si>
+  <si>
+    <t>29.08.2023</t>
+  </si>
+  <si>
+    <t>Alinhamentos OBM_29.09.2023</t>
+  </si>
+  <si>
+    <t>Alinhamentos OBM_20.10.2023</t>
+  </si>
+  <si>
+    <t>20.10.2023</t>
+  </si>
+  <si>
+    <t>Alinhamentos OBM_25.10.2023</t>
+  </si>
+  <si>
+    <t>25.10.2023</t>
+  </si>
+  <si>
+    <t>Alinhamentos OBM_28.11.2023</t>
+  </si>
+  <si>
+    <t>28.11.2023</t>
   </si>
 </sst>
 </file>
@@ -415,7 +360,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -438,78 +383,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -790,10 +674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -1045,10 +929,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>3</v>
@@ -1056,10 +940,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>3</v>
@@ -1067,10 +951,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>3</v>
@@ -1078,10 +962,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>3</v>
@@ -1089,10 +973,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>3</v>
@@ -1100,10 +984,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>3</v>
@@ -1111,10 +995,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>3</v>
@@ -1122,10 +1006,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>3</v>
@@ -1133,10 +1017,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>3</v>
@@ -1144,10 +1028,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>3</v>
@@ -1155,10 +1039,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>66</v>
+        <v>83</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>3</v>
@@ -1166,10 +1050,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>68</v>
+        <v>85</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>3</v>
@@ -1177,10 +1061,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>70</v>
+        <v>29</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>3</v>
@@ -1188,10 +1072,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>72</v>
+        <v>87</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>3</v>
@@ -1199,10 +1083,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>72</v>
+        <v>30</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>3</v>
@@ -1210,12 +1094,133 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B50" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1223,355 +1228,4 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:C39"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:A22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="28.77734375" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:3">
-      <c r="A3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="6">
-        <v>4</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="8"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="6">
-        <v>4</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="8"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="6">
-        <v>4</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="8"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="6">
-        <v>4</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="8"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="6">
-        <v>3</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="8"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="6">
-        <v>3</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="8"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="9">
-        <v>1</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="6">
-        <v>4</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="7"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="7"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="8"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="6">
-        <v>4</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="7"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="7"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="8"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="9">
-        <v>1</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="6">
-        <v>3</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="9">
-        <v>1</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>
--- a/Gestão do Projeto/Reuniões/Datas_Atas_Ponto_Controle_IPS.xlsx
+++ b/Gestão do Projeto/Reuniões/Datas_Atas_Ponto_Controle_IPS.xlsx
@@ -676,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>

--- a/Gestão do Projeto/Reuniões/Datas_Atas_Ponto_Controle_IPS.xlsx
+++ b/Gestão do Projeto/Reuniões/Datas_Atas_Ponto_Controle_IPS.xlsx
@@ -409,6 +409,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>358572</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>61205</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6355080" y="1409700"/>
+          <a:ext cx="4983912" cy="2827265"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -677,7 +720,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -1227,5 +1270,6 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Gestão do Projeto/Reuniões/Datas_Atas_Ponto_Controle_IPS.xlsx
+++ b/Gestão do Projeto/Reuniões/Datas_Atas_Ponto_Controle_IPS.xlsx
@@ -13,9 +13,10 @@
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$3:$C$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$3:$C$31</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="96">
   <si>
     <t>Atas de reuniões</t>
   </si>
@@ -409,49 +410,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>358572</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>61205</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6355080" y="1409700"/>
-          <a:ext cx="4983912" cy="2827265"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -717,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -784,10 +742,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>3</v>
@@ -795,10 +753,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>3</v>
@@ -806,10 +764,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>3</v>
@@ -817,33 +775,33 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>3</v>
@@ -851,10 +809,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>3</v>
@@ -862,10 +820,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>3</v>
@@ -873,10 +831,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>3</v>
@@ -884,10 +842,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>3</v>
@@ -895,10 +853,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>3</v>
@@ -906,10 +864,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>3</v>
@@ -917,10 +875,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>3</v>
@@ -928,10 +886,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>3</v>
@@ -939,10 +897,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>3</v>
@@ -950,10 +908,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>3</v>
@@ -961,10 +919,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>3</v>
@@ -972,10 +930,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>3</v>
@@ -983,10 +941,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>3</v>
@@ -994,10 +952,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>3</v>
@@ -1005,10 +963,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>3</v>
@@ -1016,10 +974,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>3</v>
@@ -1027,10 +985,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>3</v>
@@ -1038,10 +996,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>3</v>
@@ -1049,10 +1007,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>3</v>
@@ -1060,10 +1018,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>3</v>
@@ -1071,10 +1029,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>58</v>
+        <v>65</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>3</v>
@@ -1082,10 +1040,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>84</v>
+        <v>67</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>3</v>
@@ -1093,10 +1051,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>86</v>
+        <v>69</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>3</v>
@@ -1104,10 +1062,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>56</v>
+        <v>71</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>3</v>
@@ -1115,161 +1073,199 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>88</v>
+        <v>73</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C50" s="2" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="30.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="20.399999999999999">
+      <c r="A1" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20.399999999999999">
+      <c r="A2" s="5"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>